--- a/my.xlsx
+++ b/my.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,77 +446,77 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20220228</t>
+          <t>20220303</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>20220301</t>
+          <t>20220304</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>20220302</t>
+          <t>20220307</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>20220303</t>
+          <t>20220308</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>20220304</t>
+          <t>20220309</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>20220307</t>
+          <t>20220310</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>20220308</t>
+          <t>20220311</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>20220309</t>
+          <t>20220314</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>20220310</t>
+          <t>20220315</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>20220311</t>
+          <t>20220316</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>20220314</t>
+          <t>20220317</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>20220315</t>
+          <t>20220318</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>20220316</t>
+          <t>20220321</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>20220317</t>
+          <t>20220322</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>20220318</t>
+          <t>20220323</t>
         </is>
       </c>
     </row>
@@ -526,58 +526,58 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000671.SZ</t>
+          <t>300719.SZ</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>阳光城</t>
+          <t>安达维尔</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-3.9683</v>
+        <v>-1.7899</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4132</v>
+        <v>-2.3772</v>
       </c>
       <c r="F2" t="n">
-        <v>1.2346</v>
+        <v>-0.6494</v>
       </c>
       <c r="G2" t="n">
-        <v>1.626</v>
+        <v>-5.8824</v>
       </c>
       <c r="H2" t="n">
-        <v>-2</v>
+        <v>-3.4722</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.8163</v>
+        <v>2.6079</v>
       </c>
       <c r="J2" t="n">
-        <v>-4.1152</v>
+        <v>0.0876</v>
       </c>
       <c r="K2" t="n">
-        <v>-4.2918</v>
+        <v>-1.8389</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8969</v>
+        <v>-6.2444</v>
       </c>
       <c r="M2" t="n">
-        <v>2.2222</v>
+        <v>2.0932</v>
       </c>
       <c r="N2" t="n">
-        <v>-3.913</v>
+        <v>1.6775</v>
       </c>
       <c r="O2" t="n">
-        <v>-6.7873</v>
+        <v>1.0999</v>
       </c>
       <c r="P2" t="n">
-        <v>4.3689</v>
+        <v>0.6346000000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>10.2326</v>
+        <v>20</v>
       </c>
       <c r="R2" t="n">
-        <v>10.1266</v>
+        <v>-6.5315</v>
       </c>
     </row>
     <row r="3">
@@ -586,58 +586,58 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002015.SZ</t>
+          <t>300749.SZ</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>协鑫能科</t>
+          <t>顶固集创</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.2955</v>
+        <v>-0.5869</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2357</v>
+        <v>-0.8264</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.0673</v>
+        <v>-1.6667</v>
       </c>
       <c r="G3" t="n">
-        <v>2.7141</v>
+        <v>-2.9056</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1709</v>
+        <v>-2.2444</v>
       </c>
       <c r="I3" t="n">
-        <v>-3.4149</v>
+        <v>1.148</v>
       </c>
       <c r="J3" t="n">
-        <v>-2.5928</v>
+        <v>1.5132</v>
       </c>
       <c r="K3" t="n">
-        <v>-2.7223</v>
+        <v>-3.9752</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3109</v>
+        <v>-6.4683</v>
       </c>
       <c r="M3" t="n">
-        <v>-2.9138</v>
+        <v>3.7344</v>
       </c>
       <c r="N3" t="n">
-        <v>-4.2146</v>
+        <v>2.4</v>
       </c>
       <c r="O3" t="n">
-        <v>-7.6</v>
+        <v>1.9531</v>
       </c>
       <c r="P3" t="n">
-        <v>2.0924</v>
+        <v>1.2771</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.0353</v>
+        <v>20.0504</v>
       </c>
       <c r="R3" t="n">
-        <v>10.0193</v>
+        <v>2.9412</v>
       </c>
     </row>
     <row r="4">
@@ -646,58 +646,58 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002349.SZ</t>
+          <t>300917.SZ</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>精华制药</t>
+          <t>特发服务</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-2.7739</v>
+        <v>2.1615</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.5663</v>
+        <v>-3.5635</v>
       </c>
       <c r="F4" t="n">
-        <v>3.1065</v>
+        <v>-1.8476</v>
       </c>
       <c r="G4" t="n">
-        <v>9.971299999999999</v>
+        <v>-4.902</v>
       </c>
       <c r="H4" t="n">
-        <v>-3.9791</v>
+        <v>-2.433</v>
       </c>
       <c r="I4" t="n">
-        <v>-2.7174</v>
+        <v>3.0431</v>
       </c>
       <c r="J4" t="n">
-        <v>-9.986000000000001</v>
+        <v>-0.7383</v>
       </c>
       <c r="K4" t="n">
-        <v>2.0946</v>
+        <v>-3.0992</v>
       </c>
       <c r="L4" t="n">
-        <v>3.6474</v>
+        <v>-7.1215</v>
       </c>
       <c r="M4" t="n">
-        <v>9.970700000000001</v>
+        <v>5.9229</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.6667</v>
+        <v>19.9827</v>
       </c>
       <c r="O4" t="n">
-        <v>-3.4228</v>
+        <v>0.5419</v>
       </c>
       <c r="P4" t="n">
-        <v>10.0069</v>
+        <v>3.0183</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.5698</v>
+        <v>19.986</v>
       </c>
       <c r="R4" t="n">
-        <v>10.0178</v>
+        <v>6.9767</v>
       </c>
     </row>
     <row r="5">
@@ -706,478 +706,58 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002667.SZ</t>
+          <t>300960.SZ</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鞍重股份</t>
+          <t>通业科技</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-0.1435</v>
+        <v>-1.9862</v>
       </c>
       <c r="E5" t="n">
-        <v>1.1021</v>
+        <v>-3.3085</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.0853</v>
+        <v>0.5988</v>
       </c>
       <c r="G5" t="n">
-        <v>-3.7754</v>
+        <v>-4.3367</v>
       </c>
       <c r="H5" t="n">
-        <v>2.9175</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.0264</v>
+        <v>0.2222</v>
       </c>
       <c r="J5" t="n">
-        <v>5.4321</v>
+        <v>0.3991</v>
       </c>
       <c r="K5" t="n">
-        <v>5.7143</v>
+        <v>-3.3569</v>
       </c>
       <c r="L5" t="n">
-        <v>-10.0133</v>
+        <v>-5.8044</v>
       </c>
       <c r="M5" t="n">
-        <v>-9.995100000000001</v>
+        <v>1.6012</v>
       </c>
       <c r="N5" t="n">
-        <v>3.0635</v>
+        <v>0.9074</v>
       </c>
       <c r="O5" t="n">
-        <v>-2.9724</v>
+        <v>2.1297</v>
       </c>
       <c r="P5" t="n">
-        <v>3.884</v>
+        <v>2.456</v>
       </c>
       <c r="Q5" t="n">
-        <v>10.0053</v>
+        <v>19.991</v>
       </c>
       <c r="R5" t="n">
-        <v>10.0048</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002915.SZ</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中欣氟材</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>-1.588</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-0.6978</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-0.7466</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-2.3894</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-1.3599</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.9301</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-6.7628</v>
-      </c>
-      <c r="K6" t="n">
-        <v>-1.4023</v>
-      </c>
-      <c r="L6" t="n">
-        <v>5.9833</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-1.6659</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.7294</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-5.0798</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.0071</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>9.995100000000001</v>
-      </c>
-      <c r="R6" t="n">
-        <v>9.986499999999999</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>600318.SH</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>新力金融</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>-5.7778</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.1006</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.0218</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-3.3537</v>
-      </c>
-      <c r="H7" t="n">
-        <v>-3.2334</v>
-      </c>
-      <c r="I7" t="n">
-        <v>-2.0375</v>
-      </c>
-      <c r="J7" t="n">
-        <v>-5.2413</v>
-      </c>
-      <c r="K7" t="n">
-        <v>-2.1949</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.0772</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.3552</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-3.6283</v>
-      </c>
-      <c r="O7" t="n">
-        <v>-0.8264</v>
-      </c>
-      <c r="P7" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>4.6296</v>
-      </c>
-      <c r="R7" t="n">
-        <v>9.975899999999999</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>600613.SH</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>神奇制药</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>-0.5226</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.8757</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2.2569</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2.7165</v>
-      </c>
-      <c r="H8" t="n">
-        <v>-0.6612</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.3311</v>
-      </c>
-      <c r="J8" t="n">
-        <v>-3.4483</v>
-      </c>
-      <c r="K8" t="n">
-        <v>-2.7211</v>
-      </c>
-      <c r="L8" t="n">
-        <v>9.965</v>
-      </c>
-      <c r="M8" t="n">
-        <v>2.5437</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-2.7907</v>
-      </c>
-      <c r="O8" t="n">
-        <v>-4.6252</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.5084</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>9.9511</v>
-      </c>
-      <c r="R8" t="n">
-        <v>9.9407</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>600819.SH</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>耀皮玻璃</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>-1.1429</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.7707000000000001</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.956</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.7045</v>
-      </c>
-      <c r="H9" t="n">
-        <v>-0.7449</v>
-      </c>
-      <c r="I9" t="n">
-        <v>-1.6886</v>
-      </c>
-      <c r="J9" t="n">
-        <v>-2.4809</v>
-      </c>
-      <c r="K9" t="n">
-        <v>-2.544</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.4137</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9709</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-3.4615</v>
-      </c>
-      <c r="O9" t="n">
-        <v>-4.7809</v>
-      </c>
-      <c r="P9" t="n">
-        <v>10.0418</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>5.3232</v>
-      </c>
-      <c r="R9" t="n">
-        <v>9.9278</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>601155.SH</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>新城控股</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>-2.9884</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.6956</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.8421</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.4535</v>
-      </c>
-      <c r="H10" t="n">
-        <v>-1.1461</v>
-      </c>
-      <c r="I10" t="n">
-        <v>-0.6119</v>
-      </c>
-      <c r="J10" t="n">
-        <v>-7.7122</v>
-      </c>
-      <c r="K10" t="n">
-        <v>-9.2346</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.3095</v>
-      </c>
-      <c r="M10" t="n">
-        <v>-1.6583</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-5.1765</v>
-      </c>
-      <c r="O10" t="n">
-        <v>-10.0083</v>
-      </c>
-      <c r="P10" t="n">
-        <v>-0.1379</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>9.9862</v>
-      </c>
-      <c r="R10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>601607.SH</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>上海医药</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0.2684</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-0.3747</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.2359</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.0085</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.6306</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.7833</v>
-      </c>
-      <c r="J11" t="n">
-        <v>-3.886</v>
-      </c>
-      <c r="K11" t="n">
-        <v>-3.504</v>
-      </c>
-      <c r="L11" t="n">
-        <v>6.648</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.2572</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-0.1552</v>
-      </c>
-      <c r="O11" t="n">
-        <v>-5.4404</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.8082</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>10.0108</v>
-      </c>
-      <c r="R11" t="n">
-        <v>9.980399999999999</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>603122.SH</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>合富中国</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>9.9659</v>
-      </c>
-      <c r="E12" t="n">
-        <v>9.9923</v>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
-      </c>
-      <c r="G12" t="n">
-        <v>9.9872</v>
-      </c>
-      <c r="H12" t="n">
-        <v>10.0116</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4.2328</v>
-      </c>
-      <c r="J12" t="n">
-        <v>-5.6345</v>
-      </c>
-      <c r="K12" t="n">
-        <v>10.0054</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.8093</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.3842</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-8.756</v>
-      </c>
-      <c r="O12" t="n">
-        <v>-10.0157</v>
-      </c>
-      <c r="P12" t="n">
-        <v>6.0023</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>10.0055</v>
-      </c>
-      <c r="R12" t="n">
-        <v>9.994999999999999</v>
+        <v>-1.4323</v>
       </c>
     </row>
   </sheetData>
